--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>75.22679916544068</v>
+        <v>88.54090511900401</v>
       </c>
       <c r="R2">
-        <v>677.0411924889661</v>
+        <v>796.8681460710361</v>
       </c>
       <c r="S2">
-        <v>0.00718241576563036</v>
+        <v>0.01201862484487606</v>
       </c>
       <c r="T2">
-        <v>0.007847914224469945</v>
+        <v>0.01248255601966951</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>26.40078364529634</v>
+        <v>31.19328871702211</v>
       </c>
       <c r="R3">
-        <v>237.607052807667</v>
+        <v>280.739598453199</v>
       </c>
       <c r="S3">
-        <v>0.002520662939040545</v>
+        <v>0.004234206034644738</v>
       </c>
       <c r="T3">
-        <v>0.002754219078913815</v>
+        <v>0.004397650705339135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>0.5583003564166668</v>
+        <v>1.242562634558111</v>
       </c>
       <c r="R4">
-        <v>5.024703207750001</v>
+        <v>11.183063711023</v>
       </c>
       <c r="S4">
-        <v>5.330474413865919E-05</v>
+        <v>0.0001686666081732817</v>
       </c>
       <c r="T4">
-        <v>5.824378223262042E-05</v>
+        <v>0.0001751773112435767</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>34.2944955576725</v>
+        <v>12.61665164439017</v>
       </c>
       <c r="R5">
-        <v>205.766973346035</v>
+        <v>75.69990986634099</v>
       </c>
       <c r="S5">
-        <v>0.003274329471682824</v>
+        <v>0.001712596033535101</v>
       </c>
       <c r="T5">
-        <v>0.002385145209720446</v>
+        <v>0.001185802657879487</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H6">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I6">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J6">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>3.956573678628</v>
+        <v>1.185224374934445</v>
       </c>
       <c r="R6">
-        <v>35.609163107652</v>
+        <v>10.66701937441</v>
       </c>
       <c r="S6">
-        <v>0.0003777610835835087</v>
+        <v>0.0001608834594608451</v>
       </c>
       <c r="T6">
-        <v>0.0004127631535190038</v>
+        <v>0.000167093725054111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>4437.45473721326</v>
+        <v>4420.393821868284</v>
       </c>
       <c r="R7">
-        <v>39937.09263491935</v>
+        <v>39783.54439681456</v>
       </c>
       <c r="S7">
-        <v>0.4236740791501539</v>
+        <v>0.6000283703926111</v>
       </c>
       <c r="T7">
-        <v>0.4629302926478366</v>
+        <v>0.6231900773581402</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
         <v>1557.321110995542</v>
@@ -948,10 +948,10 @@
         <v>14015.88999895988</v>
       </c>
       <c r="S8">
-        <v>0.148688071589545</v>
+        <v>0.2113922166359659</v>
       </c>
       <c r="T8">
-        <v>0.1624650076121268</v>
+        <v>0.2195521717616081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>32.93284559297222</v>
+        <v>62.03478703659811</v>
       </c>
       <c r="R9">
-        <v>296.39561033675</v>
+        <v>558.3130833293831</v>
       </c>
       <c r="S9">
-        <v>0.003144323459434117</v>
+        <v>0.008420659713412246</v>
       </c>
       <c r="T9">
-        <v>0.0034356658830181</v>
+        <v>0.008745705765169554</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I10">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J10">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>2022.952903234049</v>
+        <v>629.8847849654101</v>
       </c>
       <c r="R10">
-        <v>12137.71741940429</v>
+        <v>3779.30870979246</v>
       </c>
       <c r="S10">
-        <v>0.1931451156570131</v>
+        <v>0.08550114679559362</v>
       </c>
       <c r="T10">
-        <v>0.140694194452418</v>
+        <v>0.05920105216679582</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I11">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J11">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>233.389122070036</v>
+        <v>59.17218146173445</v>
       </c>
       <c r="R11">
-        <v>2100.502098630324</v>
+        <v>532.54963315561</v>
       </c>
       <c r="S11">
-        <v>0.02228325182619957</v>
+        <v>0.008032086969132126</v>
       </c>
       <c r="T11">
-        <v>0.02434794290398888</v>
+        <v>0.008342133716720001</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>182.8797745169134</v>
+        <v>175.769339612256</v>
       </c>
       <c r="R12">
-        <v>1645.91797065222</v>
+        <v>1581.924056510304</v>
       </c>
       <c r="S12">
-        <v>0.01746077980556478</v>
+        <v>0.02385909370580738</v>
       </c>
       <c r="T12">
-        <v>0.01907863686507195</v>
+        <v>0.02478007905274259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>64.18150730437668</v>
+        <v>61.92418917285955</v>
       </c>
       <c r="R13">
-        <v>577.6335657393901</v>
+        <v>557.3177025557359</v>
       </c>
       <c r="S13">
-        <v>0.006127846393026506</v>
+        <v>0.008405647056481171</v>
       </c>
       <c r="T13">
-        <v>0.006695632004948256</v>
+        <v>0.008730113604372045</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H14">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I14">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J14">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>1.357253590833333</v>
+        <v>2.466706359163556</v>
       </c>
       <c r="R14">
-        <v>12.2152823175</v>
+        <v>22.200357232472</v>
       </c>
       <c r="S14">
-        <v>0.0001295862604405235</v>
+        <v>0.0003348330163714771</v>
       </c>
       <c r="T14">
-        <v>0.0001415932869653079</v>
+        <v>0.0003477579122434937</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H15">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I15">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J15">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>83.37148043432499</v>
+        <v>25.04628255913733</v>
       </c>
       <c r="R15">
-        <v>500.2288826059499</v>
+        <v>150.2776953548239</v>
       </c>
       <c r="S15">
-        <v>0.007960044055025175</v>
+        <v>0.003399805699212621</v>
       </c>
       <c r="T15">
-        <v>0.005798396621720945</v>
+        <v>0.002354027777396184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H16">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I16">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J16">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N16">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O16">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P16">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q16">
-        <v>9.61861079076</v>
+        <v>2.352879783582222</v>
       </c>
       <c r="R16">
-        <v>86.56749711684</v>
+        <v>21.17591805224</v>
       </c>
       <c r="S16">
-        <v>0.0009183543970159324</v>
+        <v>0.0003193820910906676</v>
       </c>
       <c r="T16">
-        <v>0.001003446022984904</v>
+        <v>0.0003317105654910357</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N17">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O17">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P17">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q17">
-        <v>62.29509994728402</v>
+        <v>89.36412617106001</v>
       </c>
       <c r="R17">
-        <v>373.7705996837041</v>
+        <v>536.1847570263601</v>
       </c>
       <c r="S17">
-        <v>0.005947738212267862</v>
+        <v>0.01213036963645874</v>
       </c>
       <c r="T17">
-        <v>0.004332557071103481</v>
+        <v>0.00839907618277138</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H18">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I18">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J18">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P18">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q18">
-        <v>21.862414380458</v>
+        <v>31.48331254183167</v>
       </c>
       <c r="R18">
-        <v>131.174486282748</v>
+        <v>188.89987525099</v>
       </c>
       <c r="S18">
-        <v>0.002087353861429252</v>
+        <v>0.004273574138480779</v>
       </c>
       <c r="T18">
-        <v>0.001520507360861493</v>
+        <v>0.002959025638752119</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H19">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I19">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J19">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N19">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O19">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P19">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q19">
-        <v>0.4623269485000001</v>
+        <v>1.254115528871667</v>
       </c>
       <c r="R19">
-        <v>2.773961691</v>
+        <v>7.524693173230001</v>
       </c>
       <c r="S19">
-        <v>4.414150808782087E-05</v>
+        <v>0.0001702348087969427</v>
       </c>
       <c r="T19">
-        <v>3.215434105700798E-05</v>
+        <v>0.0001178706973403039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H20">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I20">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J20">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N20">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O20">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P20">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q20">
-        <v>28.399174923135</v>
+        <v>12.7339566711025</v>
       </c>
       <c r="R20">
-        <v>113.59669969254</v>
+        <v>50.93582668441</v>
       </c>
       <c r="S20">
-        <v>0.002711462988744648</v>
+        <v>0.001728519127009002</v>
       </c>
       <c r="T20">
-        <v>0.001316754674988929</v>
+        <v>0.0007978852124171194</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H21">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I21">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J21">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N21">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O21">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P21">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q21">
-        <v>3.276427489848</v>
+        <v>1.196244159016667</v>
       </c>
       <c r="R21">
-        <v>19.658564939088</v>
+        <v>7.1774649541</v>
       </c>
       <c r="S21">
-        <v>0.000312822886512496</v>
+        <v>0.0001623792952056655</v>
       </c>
       <c r="T21">
-        <v>0.0002278720011864702</v>
+        <v>0.0001124315343893558</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H22">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I22">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J22">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N22">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O22">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P22">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q22">
-        <v>852.5358785834222</v>
+        <v>65.56102417004401</v>
       </c>
       <c r="R22">
-        <v>7672.822907250799</v>
+        <v>590.049217530396</v>
       </c>
       <c r="S22">
-        <v>0.08139741691835987</v>
+        <v>0.008899314422938825</v>
       </c>
       <c r="T22">
-        <v>0.08893942747306875</v>
+        <v>0.009242837034583579</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H23">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I23">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J23">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.203747</v>
       </c>
       <c r="O23">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P23">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q23">
-        <v>299.196769369839</v>
+        <v>23.097391570271</v>
       </c>
       <c r="R23">
-        <v>2692.770924328551</v>
+        <v>207.876524132439</v>
       </c>
       <c r="S23">
-        <v>0.02856635689924232</v>
+        <v>0.003135261423013251</v>
       </c>
       <c r="T23">
-        <v>0.03121321933542695</v>
+        <v>0.00325628571106924</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H24">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I24">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J24">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N24">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O24">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P24">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q24">
-        <v>6.327147906750001</v>
+        <v>0.9200682871670001</v>
       </c>
       <c r="R24">
-        <v>56.94433116075001</v>
+        <v>8.280614584503001</v>
       </c>
       <c r="S24">
-        <v>0.000604095978840922</v>
+        <v>0.0001248909253894044</v>
       </c>
       <c r="T24">
-        <v>0.0006600694780128318</v>
+        <v>0.0001297118424647594</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H25">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I25">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J25">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N25">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O25">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P25">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q25">
-        <v>388.6552162951425</v>
+        <v>9.342129519583498</v>
       </c>
       <c r="R25">
-        <v>2331.931297770855</v>
+        <v>56.05277711750099</v>
       </c>
       <c r="S25">
-        <v>0.03710756517466081</v>
+        <v>0.001268109353492673</v>
       </c>
       <c r="T25">
-        <v>0.02703055147203735</v>
+        <v>0.0008780397784464619</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H26">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I26">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J26">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N26">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O26">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P26">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q26">
-        <v>44.839353192084</v>
+        <v>0.8776115828900001</v>
       </c>
       <c r="R26">
-        <v>403.554178728756</v>
+        <v>7.89850424601</v>
       </c>
       <c r="S26">
-        <v>0.004281118974359403</v>
+        <v>0.0001191278128464586</v>
       </c>
       <c r="T26">
-        <v>0.004677793042321136</v>
+        <v>0.0001237262679008232</v>
       </c>
     </row>
   </sheetData>
